--- a/ky/downloads/data-excel/9.b.1.xlsx
+++ b/ky/downloads/data-excel/9.b.1.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="рус,англ" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>(в процентах)</t>
   </si>
@@ -54,6 +54,87 @@
   </si>
   <si>
     <t>Proportion of medium and high-tech industry value added in total value added</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2019-жылдан баштап маалыматтар, 2008 жылдагы Улуттук Эсептер Тутумунун эл аралык стандарттарына ылайык эсептелген </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Данные с 2019 года рассчитаны по международному стандарту Системы Национальных Счетов 2008 года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Data from 2019 are calculated according to the international standard of the System of National Accounts 2008</t>
+    </r>
+  </si>
+  <si>
+    <t>Көрсөткүчтөрдүн аталышы</t>
+  </si>
+  <si>
+    <t>Наименование показателей</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
@@ -63,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,15 +171,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -121,10 +193,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -138,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,43 +255,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 7" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,170 +650,188 @@
     <col min="1" max="3" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
         <v>2010</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2011</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>2012</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>2013</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>2014</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>2015</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>2016</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>2017</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>2018</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>2019</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>2020</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>2021</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>2022</v>
       </c>
+      <c r="Q4" s="2">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f>'[1]ДИНАМИКА с2010-2019гг-'!B4</f>
         <v>4.0049140221074477</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>'[1]ДИНАМИКА с2010-2019гг-'!C4</f>
         <v>2.5138232794591655</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f>'[1]ДИНАМИКА с2010-2019гг-'!D4</f>
         <v>5.2051468410562629</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f>'[1]ДИНАМИКА с2010-2019гг-'!E4</f>
         <v>3.5033269736644819</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f>'[1]ДИНАМИКА с2010-2019гг-'!F4</f>
         <v>4.0792006160617671</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f>'[1]ДИНАМИКА с2010-2019гг-'!G4</f>
         <v>2.8631071821925667</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <f>'[1]ДИНАМИКА с2010-2019гг-'!H4</f>
         <v>2.262053964541626</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f>'[1]ДИНАМИКА с2010-2019гг-'!I4</f>
         <v>2.5584127078623018</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <f>'[1]ДИНАМИКА с2010-2019гг-'!J4</f>
         <v>1.934556840868852</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <v>2.1</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <v>2.1</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <v>1.5020015556876996</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>2.4193727883223421</v>
       </c>
+      <c r="Q5" s="7">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
